--- a/scripts/Animals.xlsx
+++ b/scripts/Animals.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FE75C-7395-334C-B75D-D34F12765E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Zebra" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Fischer's lovebird" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="African Safari Ant" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Crocodile" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Lion" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Africanis" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Elephant" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Goat" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Baboon" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Black Mamba" sheetId="10" r:id="rId12"/>
+    <sheet name="Zebra" sheetId="1" r:id="rId1"/>
+    <sheet name="Fischer's lovebird" sheetId="2" r:id="rId2"/>
+    <sheet name="African Safari Ant" sheetId="3" r:id="rId3"/>
+    <sheet name="Crocodile" sheetId="4" r:id="rId4"/>
+    <sheet name="Lion" sheetId="5" r:id="rId5"/>
+    <sheet name="Africanis" sheetId="6" r:id="rId6"/>
+    <sheet name="Elephant" sheetId="7" r:id="rId7"/>
+    <sheet name="Goat" sheetId="8" r:id="rId8"/>
+    <sheet name="Baboon" sheetId="9" r:id="rId9"/>
+    <sheet name="Black Mamba" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="904">
   <si>
     <t>type</t>
   </si>
@@ -2764,63 +2773,91 @@
   <si>
     <t>stones</t>
   </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>What name will you give a Zebra?</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>Stripey</t>
+  </si>
+  <si>
+    <t>Horsey</t>
+  </si>
+  <si>
+    <t>Zebu</t>
+  </si>
+  <si>
+    <t>Cutie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="'Times New Roman'"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2828,7 +2865,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2838,7 +2875,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2852,191 +2895,430 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H995"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="32.33"/>
-    <col customWidth="1" min="3" max="3" width="31.33"/>
-    <col customWidth="1" min="4" max="4" width="39.33"/>
-    <col customWidth="1" min="5" max="5" width="61.67"/>
-    <col customWidth="1" min="6" max="6" width="65.89"/>
-    <col customWidth="1" min="7" max="8" width="52.11"/>
-    <col customWidth="1" min="9" max="29" width="8.56"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="65.83203125" customWidth="1"/>
+    <col min="7" max="8" width="52.1640625" customWidth="1"/>
+    <col min="9" max="29" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3103,7 +3385,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3119,7 +3401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3141,7 +3423,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3157,7 +3439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3181,7 +3463,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3197,7 +3479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3219,7 +3501,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3234,7 +3516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,537 +3539,575 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="H15" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="H16" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="H18" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>66</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="H22" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>6</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="D25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="H25" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D26" s="8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="H26" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="H33" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="H37" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C48" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4721,51 +5041,50 @@
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H10"/>
-    <hyperlink r:id="rId5" ref="H11"/>
-    <hyperlink r:id="rId6" ref="H12"/>
-    <hyperlink r:id="rId7" ref="H13"/>
-    <hyperlink r:id="rId8" ref="H14"/>
-    <hyperlink r:id="rId9" ref="H15"/>
-    <hyperlink r:id="rId10" ref="H18"/>
-    <hyperlink r:id="rId11" ref="H22"/>
-    <hyperlink r:id="rId12" ref="H26"/>
-    <hyperlink r:id="rId13" ref="H30"/>
-    <hyperlink r:id="rId14" ref="H32"/>
-    <hyperlink r:id="rId15" ref="H34"/>
-    <hyperlink r:id="rId16" ref="H36"/>
-    <hyperlink r:id="rId17" ref="H40"/>
-    <hyperlink r:id="rId18" ref="H44"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H44" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="25.89"/>
-    <col customWidth="1" min="3" max="3" width="37.67"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="41.67"/>
-    <col customWidth="1" min="6" max="6" width="14.44"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +5110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +5125,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4821,7 +5140,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -4835,7 +5154,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4851,7 +5170,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -4866,7 +5185,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -4882,7 +5201,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -4897,7 +5216,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>246</v>
       </c>
@@ -4912,7 +5231,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>246</v>
       </c>
@@ -4927,7 +5246,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>246</v>
       </c>
@@ -4942,7 +5261,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>246</v>
       </c>
@@ -4957,7 +5276,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4975,7 +5294,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -4993,7 +5312,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -5011,7 +5330,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -5029,7 +5348,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -5045,7 +5364,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -5056,7 +5375,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -5067,7 +5386,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -5078,7 +5397,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -5094,7 +5413,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -5105,7 +5424,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +5435,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -5127,7 +5446,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -5140,7 +5459,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -5151,7 +5470,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -5162,7 +5481,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -5173,7 +5492,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -5186,7 +5505,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -5197,7 +5516,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -5208,7 +5527,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>63</v>
       </c>
@@ -5219,7 +5538,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -5228,7 +5547,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -5237,7 +5556,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -5246,7 +5565,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>63</v>
       </c>
@@ -5257,7 +5576,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>66</v>
       </c>
@@ -5266,7 +5585,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
@@ -5275,7 +5594,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -5284,7 +5603,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -5295,7 +5614,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -5304,7 +5623,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>6</v>
       </c>
@@ -5313,7 +5632,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
@@ -5324,44 +5643,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H9"/>
-    <hyperlink r:id="rId5" ref="H10"/>
-    <hyperlink r:id="rId6" ref="H11"/>
-    <hyperlink r:id="rId7" ref="H12"/>
-    <hyperlink r:id="rId8" ref="H13"/>
-    <hyperlink r:id="rId9" ref="H14"/>
-    <hyperlink r:id="rId10" ref="H15"/>
-    <hyperlink r:id="rId11" ref="H16"/>
-    <hyperlink r:id="rId12" ref="H17"/>
-    <hyperlink r:id="rId13" ref="H21"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
+    <hyperlink ref="H21" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="27.22"/>
-    <col customWidth="1" min="3" max="3" width="40.22"/>
-    <col customWidth="1" min="4" max="4" width="14.89"/>
-    <col customWidth="1" min="5" max="5" width="56.56"/>
-    <col customWidth="1" min="6" max="7" width="35.67"/>
-    <col customWidth="1" min="8" max="8" width="24.11"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
+    <col min="6" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5404,7 +5724,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5422,7 +5742,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5436,7 +5756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5453,7 +5773,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -5467,7 +5787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5485,7 +5805,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -5499,7 +5819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5517,7 +5837,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5531,7 +5851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -5551,7 +5871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5571,7 +5891,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -5591,7 +5911,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -5611,7 +5931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -5631,7 +5951,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -5649,7 +5969,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -5662,7 +5982,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5675,7 +5995,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -5688,7 +6008,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -5706,7 +6026,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -5719,7 +6039,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -5732,7 +6052,7 @@
       </c>
       <c r="E22" s="20"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -5745,7 +6065,7 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -5758,7 +6078,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -5771,7 +6091,7 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -5785,7 +6105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -5798,7 +6118,7 @@
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -5812,7 +6132,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -5825,7 +6145,7 @@
       </c>
       <c r="E29" s="20"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -5839,7 +6159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -5852,7 +6172,7 @@
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -5866,7 +6186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -5879,7 +6199,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -5893,7 +6213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -5911,7 +6231,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,7 +6244,7 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -5937,7 +6257,7 @@
       </c>
       <c r="E37" s="20"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
@@ -5954,7 +6274,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -5966,7 +6286,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -5978,7 +6298,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -5995,7 +6315,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
@@ -6007,7 +6327,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
@@ -6019,7 +6339,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
@@ -6036,7 +6356,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
         <v>66</v>
       </c>
@@ -6048,7 +6368,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
         <v>6</v>
       </c>
@@ -6062,50 +6382,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H10"/>
-    <hyperlink r:id="rId5" ref="H11"/>
-    <hyperlink r:id="rId6" ref="H12"/>
-    <hyperlink r:id="rId7" ref="H13"/>
-    <hyperlink r:id="rId8" ref="H14"/>
-    <hyperlink r:id="rId9" ref="H15"/>
-    <hyperlink r:id="rId10" ref="H16"/>
-    <hyperlink r:id="rId11" ref="H20"/>
-    <hyperlink r:id="rId12" ref="H26"/>
-    <hyperlink r:id="rId13" ref="H28"/>
-    <hyperlink r:id="rId14" ref="H30"/>
-    <hyperlink r:id="rId15" ref="H32"/>
-    <hyperlink r:id="rId16" ref="H34"/>
-    <hyperlink r:id="rId17" ref="H35"/>
-    <hyperlink r:id="rId18" ref="H38"/>
-    <hyperlink r:id="rId19" ref="H41"/>
-    <hyperlink r:id="rId20" ref="H44"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H28" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H30" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H32" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H34" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H35" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H38" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H41" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H44" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="27.89"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="43.78"/>
-    <col customWidth="1" min="6" max="6" width="13.78"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6146,7 +6467,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -6162,7 +6483,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -6176,7 +6497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6191,7 +6512,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -6205,7 +6526,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6220,7 +6541,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6235,7 +6556,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>246</v>
       </c>
@@ -6250,7 +6571,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>246</v>
       </c>
@@ -6265,7 +6586,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -6283,7 +6604,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6301,7 +6622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -6319,7 +6640,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -6335,7 +6656,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -6346,7 +6667,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -6357,7 +6678,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6689,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -6384,7 +6705,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -6395,7 +6716,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -6406,7 +6727,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -6417,7 +6738,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -6433,7 +6754,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -6444,7 +6765,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -6455,7 +6776,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6787,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -6482,7 +6803,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -6493,7 +6814,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -6504,7 +6825,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
         <v>63</v>
       </c>
@@ -6518,7 +6839,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -6527,7 +6848,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
@@ -6536,7 +6857,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
@@ -6545,7 +6866,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -6559,7 +6880,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -6568,7 +6889,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -6577,7 +6898,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -6586,7 +6907,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -6600,7 +6921,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
         <v>66</v>
       </c>
@@ -6609,7 +6930,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
@@ -6618,7 +6939,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -6629,46 +6950,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H9"/>
-    <hyperlink r:id="rId5" ref="H10"/>
-    <hyperlink r:id="rId6" ref="H11"/>
-    <hyperlink r:id="rId7" ref="H12"/>
-    <hyperlink r:id="rId8" ref="H13"/>
-    <hyperlink r:id="rId9" ref="H14"/>
-    <hyperlink r:id="rId10" ref="H18"/>
-    <hyperlink r:id="rId11" ref="H22"/>
-    <hyperlink r:id="rId12" ref="H26"/>
-    <hyperlink r:id="rId13" ref="H29"/>
-    <hyperlink r:id="rId14" ref="H33"/>
-    <hyperlink r:id="rId15" ref="H37"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="H22" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="H29" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="H33" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="H37" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.67"/>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="3" max="3" width="37.67"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="60.44"/>
-    <col customWidth="1" min="6" max="7" width="28.89"/>
-    <col customWidth="1" min="8" max="8" width="28.0"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6694,7 +7016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6709,7 +7031,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -6725,7 +7047,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -6740,7 +7062,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6755,7 +7077,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -6769,7 +7091,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6785,7 +7107,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -6799,7 +7121,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -6814,7 +7136,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6828,7 +7150,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -6846,7 +7168,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -6864,7 +7186,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -6882,7 +7204,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -6900,7 +7222,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -6918,7 +7240,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -6934,7 +7256,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -6945,7 +7267,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -6956,7 +7278,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -6972,7 +7294,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -6983,7 +7305,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -6994,7 +7316,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -7005,7 +7327,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -7021,7 +7343,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7032,7 +7354,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -7046,7 +7368,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -7057,7 +7379,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -7071,7 +7393,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -7082,7 +7404,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -7096,7 +7418,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -7107,7 +7429,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -7121,7 +7443,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -7132,7 +7454,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -7146,7 +7468,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -7162,7 +7484,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -7173,7 +7495,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -7184,7 +7506,7 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -7198,7 +7520,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
         <v>66</v>
       </c>
@@ -7207,7 +7529,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
@@ -7216,7 +7538,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -7225,7 +7547,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -7239,7 +7561,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
@@ -7248,7 +7570,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
@@ -7257,7 +7579,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -7266,7 +7588,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
@@ -7280,7 +7602,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
@@ -7289,7 +7611,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
@@ -7298,7 +7620,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
@@ -7309,51 +7631,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H10"/>
-    <hyperlink r:id="rId5" ref="H11"/>
-    <hyperlink r:id="rId6" ref="H12"/>
-    <hyperlink r:id="rId7" ref="H13"/>
-    <hyperlink r:id="rId8" ref="H14"/>
-    <hyperlink r:id="rId9" ref="H15"/>
-    <hyperlink r:id="rId10" ref="H16"/>
-    <hyperlink r:id="rId11" ref="H19"/>
-    <hyperlink r:id="rId12" ref="H23"/>
-    <hyperlink r:id="rId13" ref="H25"/>
-    <hyperlink r:id="rId14" ref="H27"/>
-    <hyperlink r:id="rId15" ref="H29"/>
-    <hyperlink r:id="rId16" ref="H31"/>
-    <hyperlink r:id="rId17" ref="H33"/>
-    <hyperlink r:id="rId18" ref="H34"/>
-    <hyperlink r:id="rId19" ref="H37"/>
-    <hyperlink r:id="rId20" ref="H41"/>
-    <hyperlink r:id="rId21" ref="H45"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="H23" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="H25" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="H27" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="H29" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="H31" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="H33" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="H34" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="H37" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="H41" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="H45" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="26.33"/>
-    <col customWidth="1" min="3" max="3" width="35.0"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="46.78"/>
-    <col customWidth="1" min="6" max="7" width="45.78"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" customWidth="1"/>
+    <col min="6" max="7" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7379,7 +7702,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -7397,7 +7720,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7735,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -7426,7 +7749,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -7441,7 +7764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -7455,7 +7778,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -7470,7 +7793,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -7484,7 +7807,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -7499,7 +7822,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -7513,7 +7836,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -7531,7 +7854,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7549,7 +7872,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -7567,7 +7890,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -7585,7 +7908,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -7603,7 +7926,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>420</v>
       </c>
@@ -7614,7 +7937,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -7628,7 +7951,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -7642,7 +7965,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -7656,7 +7979,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -7670,7 +7993,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7684,7 +8007,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -7698,7 +8021,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -7712,7 +8035,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +8049,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -7742,7 +8065,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -7753,7 +8076,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -7764,7 +8087,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -7775,7 +8098,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -7786,7 +8109,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -7797,7 +8120,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -7811,7 +8134,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -7822,7 +8145,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -7836,7 +8159,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -7847,7 +8170,7 @@
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -7861,7 +8184,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -7872,7 +8195,7 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -7886,7 +8209,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -7897,7 +8220,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -7911,7 +8234,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
@@ -7927,7 +8250,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -7943,7 +8266,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -7957,7 +8280,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
@@ -7968,7 +8291,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
         <v>66</v>
       </c>
@@ -7977,7 +8300,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
@@ -7991,7 +8314,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
         <v>6</v>
       </c>
@@ -8000,7 +8323,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -8014,7 +8337,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
@@ -8023,7 +8346,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
@@ -8037,7 +8360,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8051,7 +8374,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -8065,7 +8388,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
@@ -8079,7 +8402,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -8093,7 +8416,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
@@ -8109,63 +8432,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" location="imgrc=Lf_YFMtzGm8l9M:" ref="H8"/>
-    <hyperlink r:id="rId4" location="imgrc=XnbQaZGwF0kJ5M:" ref="H10"/>
-    <hyperlink r:id="rId5" ref="H11"/>
-    <hyperlink r:id="rId6" ref="H12"/>
-    <hyperlink r:id="rId7" ref="H13"/>
-    <hyperlink r:id="rId8" ref="H14"/>
-    <hyperlink r:id="rId9" ref="H15"/>
-    <hyperlink r:id="rId10" ref="H17"/>
-    <hyperlink r:id="rId11" ref="H18"/>
-    <hyperlink r:id="rId12" ref="H19"/>
-    <hyperlink r:id="rId13" ref="H20"/>
-    <hyperlink r:id="rId14" ref="H21"/>
-    <hyperlink r:id="rId15" ref="H22"/>
-    <hyperlink r:id="rId16" ref="H23"/>
-    <hyperlink r:id="rId17" ref="H24"/>
-    <hyperlink r:id="rId18" ref="H25"/>
-    <hyperlink r:id="rId19" ref="H31"/>
-    <hyperlink r:id="rId20" ref="H33"/>
-    <hyperlink r:id="rId21" ref="H35"/>
-    <hyperlink r:id="rId22" ref="H37"/>
-    <hyperlink r:id="rId23" ref="H39"/>
-    <hyperlink r:id="rId24" ref="H40"/>
-    <hyperlink r:id="rId25" ref="H41"/>
-    <hyperlink r:id="rId26" ref="H42"/>
-    <hyperlink r:id="rId27" ref="H45"/>
-    <hyperlink r:id="rId28" ref="H47"/>
-    <hyperlink r:id="rId29" ref="H49"/>
-    <hyperlink r:id="rId30" ref="H50"/>
-    <hyperlink r:id="rId31" ref="H51"/>
-    <hyperlink r:id="rId32" ref="H52"/>
-    <hyperlink r:id="rId33" ref="H53"/>
-    <hyperlink r:id="rId34" ref="H54"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" location="imgrc=Lf_YFMtzGm8l9M:" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" location="imgrc=XnbQaZGwF0kJ5M:" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="H17" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="H18" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="H19" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="H20" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="H21" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="H22" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="H23" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="H24" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="H25" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="H31" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="H33" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="H35" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="H37" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="H39" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="H40" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="H41" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="H42" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="H45" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="H47" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="H49" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="H50" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="H51" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="H52" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="H53" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="H54" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
   </hyperlinks>
-  <drawing r:id="rId35"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="27.89"/>
-    <col customWidth="1" min="3" max="3" width="37.67"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="49.89"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8191,7 +8515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -8206,7 +8530,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -8223,7 +8547,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -8238,7 +8562,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>246</v>
       </c>
@@ -8253,7 +8577,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>246</v>
       </c>
@@ -8268,7 +8592,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>246</v>
       </c>
@@ -8283,7 +8607,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
@@ -8298,7 +8622,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -8314,7 +8638,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8328,7 +8652,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -8344,7 +8668,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -8359,7 +8683,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>246</v>
       </c>
@@ -8374,7 +8698,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>246</v>
       </c>
@@ -8389,7 +8713,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>246</v>
       </c>
@@ -8404,7 +8728,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>246</v>
       </c>
@@ -8419,7 +8743,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>246</v>
       </c>
@@ -8434,7 +8758,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>246</v>
       </c>
@@ -8449,7 +8773,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>246</v>
       </c>
@@ -8464,7 +8788,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -8477,7 +8801,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -8491,7 +8815,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>246</v>
       </c>
@@ -8505,7 +8829,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>246</v>
       </c>
@@ -8516,7 +8840,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>246</v>
       </c>
@@ -8531,7 +8855,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>246</v>
       </c>
@@ -8546,7 +8870,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -8564,7 +8888,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -8582,7 +8906,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -8600,7 +8924,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -8618,7 +8942,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -8634,7 +8958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -8645,7 +8969,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -8656,7 +8980,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -8667,7 +8991,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -8683,7 +9007,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -8694,7 +9018,7 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -8705,7 +9029,7 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -8716,7 +9040,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -8732,7 +9056,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -8743,7 +9067,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -8754,7 +9078,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -8765,7 +9089,7 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
@@ -8781,7 +9105,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -8792,7 +9116,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -8806,7 +9130,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -8817,7 +9141,7 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -8831,7 +9155,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -8842,7 +9166,7 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -8856,7 +9180,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -8867,7 +9191,7 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -8881,7 +9205,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -8892,7 +9216,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8906,7 +9230,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
@@ -8922,7 +9246,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -8933,7 +9257,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -8944,7 +9268,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
@@ -8958,7 +9282,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
@@ -8967,7 +9291,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
@@ -8976,7 +9300,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
         <v>6</v>
       </c>
@@ -8985,7 +9309,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -8999,7 +9323,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
         <v>66</v>
       </c>
@@ -9008,7 +9332,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
@@ -9017,7 +9341,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -9026,7 +9350,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
@@ -9040,7 +9364,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>66</v>
       </c>
@@ -9049,7 +9373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>6</v>
       </c>
@@ -9058,7 +9382,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
         <v>6</v>
       </c>
@@ -9069,65 +9393,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H5"/>
-    <hyperlink r:id="rId3" ref="H6"/>
-    <hyperlink r:id="rId4" ref="H7"/>
-    <hyperlink r:id="rId5" ref="H8"/>
-    <hyperlink r:id="rId6" ref="H10"/>
-    <hyperlink r:id="rId7" ref="H12"/>
-    <hyperlink r:id="rId8" ref="H13"/>
-    <hyperlink r:id="rId9" ref="H14"/>
-    <hyperlink r:id="rId10" ref="H15"/>
-    <hyperlink r:id="rId11" ref="H16"/>
-    <hyperlink r:id="rId12" ref="H17"/>
-    <hyperlink r:id="rId13" ref="H18"/>
-    <hyperlink r:id="rId14" ref="H19"/>
-    <hyperlink r:id="rId15" ref="H21"/>
-    <hyperlink r:id="rId16" ref="H22"/>
-    <hyperlink r:id="rId17" ref="H24"/>
-    <hyperlink r:id="rId18" ref="H25"/>
-    <hyperlink r:id="rId19" ref="H26"/>
-    <hyperlink r:id="rId20" ref="H27"/>
-    <hyperlink r:id="rId21" ref="H28"/>
-    <hyperlink r:id="rId22" ref="H29"/>
-    <hyperlink r:id="rId23" ref="H30"/>
-    <hyperlink r:id="rId24" ref="H34"/>
-    <hyperlink r:id="rId25" ref="H38"/>
-    <hyperlink r:id="rId26" ref="H42"/>
-    <hyperlink r:id="rId27" ref="H44"/>
-    <hyperlink r:id="rId28" ref="H46"/>
-    <hyperlink r:id="rId29" ref="H48"/>
-    <hyperlink r:id="rId30" ref="H50"/>
-    <hyperlink r:id="rId31" ref="H52"/>
-    <hyperlink r:id="rId32" ref="H53"/>
-    <hyperlink r:id="rId33" ref="H56"/>
-    <hyperlink r:id="rId34" ref="H60"/>
-    <hyperlink r:id="rId35" ref="H64"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="H19" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="H22" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="H24" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="H25" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="H26" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="H27" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="H28" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="H29" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="H30" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="H34" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="H38" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="H42" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="H44" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="H46" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="H48" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="H50" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="H52" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="H53" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="H56" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="H60" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="H64" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
   </hyperlinks>
-  <drawing r:id="rId36"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="28.89"/>
-    <col customWidth="1" min="3" max="3" width="37.67"/>
-    <col customWidth="1" min="4" max="4" width="16.11"/>
-    <col customWidth="1" min="5" max="5" width="43.33"/>
-    <col customWidth="1" min="6" max="6" width="14.89"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -9153,7 +9478,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
@@ -9171,7 +9496,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
@@ -9189,7 +9514,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="26" t="s">
         <v>20</v>
       </c>
@@ -9205,7 +9530,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
         <v>246</v>
       </c>
@@ -9221,7 +9546,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
         <v>246</v>
       </c>
@@ -9237,7 +9562,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
         <v>246</v>
       </c>
@@ -9253,7 +9578,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
         <v>246</v>
       </c>
@@ -9269,7 +9594,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>246</v>
       </c>
@@ -9285,7 +9610,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
         <v>246</v>
       </c>
@@ -9301,7 +9626,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
         <v>246</v>
       </c>
@@ -9317,7 +9642,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
         <v>246</v>
       </c>
@@ -9333,7 +9658,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="26" t="s">
         <v>246</v>
       </c>
@@ -9349,7 +9674,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="25" t="s">
         <v>14</v>
       </c>
@@ -9367,7 +9692,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
@@ -9383,7 +9708,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="26" t="s">
         <v>246</v>
       </c>
@@ -9399,7 +9724,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
         <v>246</v>
       </c>
@@ -9415,7 +9740,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="26" t="s">
         <v>246</v>
       </c>
@@ -9431,7 +9756,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
         <v>246</v>
       </c>
@@ -9447,7 +9772,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="26" t="s">
         <v>246</v>
       </c>
@@ -9463,7 +9788,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="25" t="s">
         <v>14</v>
       </c>
@@ -9483,7 +9808,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
@@ -9499,7 +9824,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="25" t="s">
         <v>14</v>
       </c>
@@ -9515,7 +9840,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
@@ -9531,7 +9856,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="25" t="s">
         <v>41</v>
       </c>
@@ -9551,7 +9876,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="25" t="s">
         <v>41</v>
       </c>
@@ -9571,7 +9896,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="25" t="s">
         <v>41</v>
       </c>
@@ -9591,7 +9916,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="26" t="s">
         <v>41</v>
       </c>
@@ -9611,7 +9936,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="25" t="s">
         <v>41</v>
       </c>
@@ -9631,7 +9956,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="26" t="s">
         <v>63</v>
       </c>
@@ -9645,7 +9970,7 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
         <v>66</v>
       </c>
@@ -9659,7 +9984,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="26" t="s">
         <v>6</v>
       </c>
@@ -9673,7 +9998,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="26" t="s">
         <v>6</v>
       </c>
@@ -9687,7 +10012,7 @@
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="26" t="s">
         <v>63</v>
       </c>
@@ -9703,7 +10028,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="26" t="s">
         <v>66</v>
       </c>
@@ -9717,7 +10042,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="26" t="s">
         <v>6</v>
       </c>
@@ -9731,7 +10056,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="26" t="s">
         <v>6</v>
       </c>
@@ -9745,7 +10070,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="26" t="s">
         <v>63</v>
       </c>
@@ -9763,7 +10088,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="25" t="s">
         <v>66</v>
       </c>
@@ -9777,7 +10102,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9791,7 +10116,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="25" t="s">
         <v>6</v>
       </c>
@@ -9805,7 +10130,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="26" t="s">
         <v>90</v>
       </c>
@@ -9821,7 +10146,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="26" t="s">
         <v>66</v>
       </c>
@@ -9835,7 +10160,7 @@
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="26" t="s">
         <v>66</v>
       </c>
@@ -9851,7 +10176,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="26" t="s">
         <v>66</v>
       </c>
@@ -9865,7 +10190,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="26" t="s">
         <v>66</v>
       </c>
@@ -9879,7 +10204,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="26" t="s">
         <v>66</v>
       </c>
@@ -9893,7 +10218,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
         <v>66</v>
       </c>
@@ -9909,7 +10234,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="26" t="s">
         <v>66</v>
       </c>
@@ -9923,7 +10248,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="26" t="s">
         <v>66</v>
       </c>
@@ -9939,7 +10264,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="26" t="s">
         <v>66</v>
       </c>
@@ -9953,7 +10278,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="26" t="s">
         <v>66</v>
       </c>
@@ -9969,7 +10294,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="26" t="s">
         <v>63</v>
       </c>
@@ -9983,7 +10308,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="25" t="s">
         <v>66</v>
       </c>
@@ -10001,7 +10326,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
         <v>6</v>
       </c>
@@ -10015,7 +10340,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" s="29" t="s">
         <v>63</v>
       </c>
@@ -10031,7 +10356,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" s="29" t="s">
         <v>66</v>
       </c>
@@ -10045,7 +10370,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" s="29" t="s">
         <v>6</v>
       </c>
@@ -10059,7 +10384,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" s="29" t="s">
         <v>6</v>
       </c>
@@ -10073,7 +10398,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60" s="29" t="s">
         <v>63</v>
       </c>
@@ -10089,7 +10414,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8">
       <c r="A61" s="29" t="s">
         <v>66</v>
       </c>
@@ -10103,7 +10428,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8">
       <c r="A62" s="29" t="s">
         <v>6</v>
       </c>
@@ -10117,7 +10442,7 @@
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8">
       <c r="A63" s="30" t="s">
         <v>6</v>
       </c>
@@ -10131,7 +10456,7 @@
       <c r="G63" s="30"/>
       <c r="H63" s="30"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8">
       <c r="A64" s="29" t="s">
         <v>63</v>
       </c>
@@ -10147,7 +10472,7 @@
       <c r="G64" s="30"/>
       <c r="H64" s="30"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8">
       <c r="A65" s="29" t="s">
         <v>66</v>
       </c>
@@ -10161,7 +10486,7 @@
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8">
       <c r="A66" s="29" t="s">
         <v>6</v>
       </c>
@@ -10175,7 +10500,7 @@
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67" s="29" t="s">
         <v>6</v>
       </c>
@@ -10191,59 +10516,60 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H5"/>
-    <hyperlink r:id="rId3" ref="H6"/>
-    <hyperlink r:id="rId4" ref="H7"/>
-    <hyperlink r:id="rId5" ref="H8"/>
-    <hyperlink r:id="rId6" ref="H9"/>
-    <hyperlink r:id="rId7" ref="H10"/>
-    <hyperlink r:id="rId8" ref="H11"/>
-    <hyperlink r:id="rId9" ref="H12"/>
-    <hyperlink r:id="rId10" ref="H13"/>
-    <hyperlink r:id="rId11" ref="H15"/>
-    <hyperlink r:id="rId12" ref="H16"/>
-    <hyperlink r:id="rId13" ref="H17"/>
-    <hyperlink r:id="rId14" ref="H18"/>
-    <hyperlink r:id="rId15" ref="H19"/>
-    <hyperlink r:id="rId16" ref="H20"/>
-    <hyperlink r:id="rId17" ref="H21"/>
-    <hyperlink r:id="rId18" ref="H22"/>
-    <hyperlink r:id="rId19" ref="H24"/>
-    <hyperlink r:id="rId20" ref="H25"/>
-    <hyperlink r:id="rId21" ref="H26"/>
-    <hyperlink r:id="rId22" ref="H27"/>
-    <hyperlink r:id="rId23" ref="H28"/>
-    <hyperlink r:id="rId24" ref="H29"/>
-    <hyperlink r:id="rId25" ref="H38"/>
-    <hyperlink r:id="rId26" ref="H44"/>
-    <hyperlink r:id="rId27" ref="H48"/>
-    <hyperlink r:id="rId28" ref="H50"/>
-    <hyperlink r:id="rId29" ref="H52"/>
-    <hyperlink r:id="rId30" ref="H54"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="H17" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="H18" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="H29" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="H38" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="H44" r:id="rId26" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="H48" r:id="rId27" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="H50" r:id="rId28" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="H52" r:id="rId29" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="H54" r:id="rId30" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
-    <col customWidth="1" min="3" max="3" width="43.78"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="58.89"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10269,7 +10595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10284,7 +10610,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -10300,7 +10626,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -10314,7 +10640,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -10329,7 +10655,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -10343,7 +10669,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -10358,7 +10684,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -10372,7 +10698,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -10388,7 +10714,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -10402,7 +10728,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -10420,7 +10746,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -10438,7 +10764,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -10456,7 +10782,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -10474,7 +10800,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -10490,7 +10816,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -10501,7 +10827,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -10512,7 +10838,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -10528,7 +10854,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -10539,7 +10865,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -10550,7 +10876,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -10561,7 +10887,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>420</v>
       </c>
@@ -10577,7 +10903,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -10592,7 +10918,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -10607,7 +10933,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -10622,7 +10948,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -10637,7 +10963,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -10652,7 +10978,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -10667,7 +10993,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -10682,7 +11008,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -10697,7 +11023,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +11038,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -10728,7 +11054,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -10739,7 +11065,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -10750,7 +11076,7 @@
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -10761,7 +11087,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -10772,7 +11098,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -10781,7 +11107,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -10794,7 +11120,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -10803,7 +11129,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -10816,7 +11142,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -10825,7 +11151,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -10838,7 +11164,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -10847,7 +11173,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -10856,7 +11182,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -10865,7 +11191,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -10878,7 +11204,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -10892,7 +11218,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
@@ -10901,7 +11227,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
@@ -10910,7 +11236,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
         <v>63</v>
       </c>
@@ -10924,7 +11250,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
         <v>66</v>
       </c>
@@ -10933,7 +11259,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
         <v>6</v>
       </c>
@@ -10942,7 +11268,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
@@ -10956,7 +11282,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
         <v>66</v>
       </c>
@@ -10965,7 +11291,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
         <v>6</v>
       </c>
@@ -10976,58 +11302,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H10"/>
-    <hyperlink r:id="rId5" ref="H11"/>
-    <hyperlink r:id="rId6" ref="H12"/>
-    <hyperlink r:id="rId7" ref="H13"/>
-    <hyperlink r:id="rId8" ref="H14"/>
-    <hyperlink r:id="rId9" ref="H15"/>
-    <hyperlink r:id="rId10" ref="H18"/>
-    <hyperlink r:id="rId11" ref="H22"/>
-    <hyperlink r:id="rId12" ref="H23"/>
-    <hyperlink r:id="rId13" ref="H24"/>
-    <hyperlink r:id="rId14" ref="H25"/>
-    <hyperlink r:id="rId15" ref="H26"/>
-    <hyperlink r:id="rId16" ref="H27"/>
-    <hyperlink r:id="rId17" ref="H28"/>
-    <hyperlink r:id="rId18" ref="H29"/>
-    <hyperlink r:id="rId19" ref="H30"/>
-    <hyperlink r:id="rId20" ref="H31"/>
-    <hyperlink r:id="rId21" ref="H32"/>
-    <hyperlink r:id="rId22" ref="H38"/>
-    <hyperlink r:id="rId23" ref="H40"/>
-    <hyperlink r:id="rId24" ref="H42"/>
-    <hyperlink r:id="rId25" ref="H46"/>
-    <hyperlink r:id="rId26" ref="H47"/>
-    <hyperlink r:id="rId27" ref="H50"/>
-    <hyperlink r:id="rId28" ref="H53"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="H22" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="H23" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="H24" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="H25" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="H26" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="H27" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="H28" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="H29" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="H30" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="H31" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="H32" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
+    <hyperlink ref="H38" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
+    <hyperlink ref="H40" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
+    <hyperlink ref="H42" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
+    <hyperlink ref="H46" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
+    <hyperlink ref="H47" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
+    <hyperlink ref="H50" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
+    <hyperlink ref="H53" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="25.89"/>
-    <col customWidth="1" min="3" max="3" width="37.67"/>
-    <col customWidth="1" min="4" max="4" width="9.67"/>
-    <col customWidth="1" min="5" max="5" width="41.67"/>
-    <col customWidth="1" min="6" max="6" width="12.33"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11053,7 +11380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -11068,7 +11395,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11087,7 +11414,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -11102,7 +11429,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>246</v>
       </c>
@@ -11117,7 +11444,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>246</v>
       </c>
@@ -11132,7 +11459,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>246</v>
       </c>
@@ -11147,7 +11474,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -11162,7 +11489,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -11177,7 +11504,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>246</v>
       </c>
@@ -11192,7 +11519,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
@@ -11207,7 +11534,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>246</v>
       </c>
@@ -11222,7 +11549,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>246</v>
       </c>
@@ -11237,7 +11564,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -11252,7 +11579,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -11267,7 +11594,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -11282,7 +11609,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -11296,7 +11623,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -11314,7 +11641,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -11332,7 +11659,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -11350,7 +11677,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -11368,7 +11695,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -11384,7 +11711,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -11395,7 +11722,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -11406,7 +11733,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -11417,7 +11744,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -11433,7 +11760,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -11444,7 +11771,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -11455,7 +11782,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -11466,7 +11793,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -11482,7 +11809,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -11493,7 +11820,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -11504,7 +11831,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -11515,7 +11842,7 @@
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>90</v>
       </c>
@@ -11531,7 +11858,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -11542,7 +11869,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -11557,7 +11884,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -11568,7 +11895,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -11583,7 +11910,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -11594,7 +11921,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -11609,7 +11936,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -11620,7 +11947,7 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -11635,7 +11962,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -11646,7 +11973,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -11661,7 +11988,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
@@ -11677,7 +12004,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -11688,7 +12015,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -11699,7 +12026,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
         <v>63</v>
       </c>
@@ -11713,7 +12040,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
         <v>66</v>
       </c>
@@ -11722,7 +12049,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
@@ -11731,7 +12058,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
@@ -11740,7 +12067,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
         <v>63</v>
       </c>
@@ -11754,7 +12081,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
         <v>66</v>
       </c>
@@ -11763,7 +12090,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
@@ -11772,7 +12099,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -11781,7 +12108,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
@@ -11795,7 +12122,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
@@ -11804,7 +12131,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
@@ -11813,7 +12140,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
         <v>6</v>
       </c>
@@ -11823,36 +12150,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="H4"/>
-    <hyperlink r:id="rId3" ref="H5"/>
-    <hyperlink r:id="rId4" ref="H6"/>
-    <hyperlink r:id="rId5" ref="H7"/>
-    <hyperlink r:id="rId6" ref="H9"/>
-    <hyperlink r:id="rId7" ref="H10"/>
-    <hyperlink r:id="rId8" ref="H11"/>
-    <hyperlink r:id="rId9" ref="H12"/>
-    <hyperlink r:id="rId10" ref="H13"/>
-    <hyperlink r:id="rId11" ref="H15"/>
-    <hyperlink r:id="rId12" ref="H17"/>
-    <hyperlink r:id="rId13" ref="H18"/>
-    <hyperlink r:id="rId14" ref="H19"/>
-    <hyperlink r:id="rId15" ref="H20"/>
-    <hyperlink r:id="rId16" ref="H21"/>
-    <hyperlink r:id="rId17" ref="H22"/>
-    <hyperlink r:id="rId18" ref="H26"/>
-    <hyperlink r:id="rId19" ref="H30"/>
-    <hyperlink r:id="rId20" ref="H34"/>
-    <hyperlink r:id="rId21" ref="H36"/>
-    <hyperlink r:id="rId22" ref="H38"/>
-    <hyperlink r:id="rId23" ref="H40"/>
-    <hyperlink r:id="rId24" ref="H42"/>
-    <hyperlink r:id="rId25" ref="H44"/>
-    <hyperlink r:id="rId26" ref="H45"/>
-    <hyperlink r:id="rId27" ref="H48"/>
-    <hyperlink r:id="rId28" ref="H52"/>
-    <hyperlink r:id="rId29" ref="H56"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
+    <hyperlink ref="H19" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
+    <hyperlink ref="H20" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
+    <hyperlink ref="H22" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="H26" r:id="rId18" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
+    <hyperlink ref="H30" r:id="rId19" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
+    <hyperlink ref="H34" r:id="rId20" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
+    <hyperlink ref="H36" r:id="rId21" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
+    <hyperlink ref="H38" r:id="rId22" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
+    <hyperlink ref="H40" r:id="rId23" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
+    <hyperlink ref="H42" r:id="rId24" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
+    <hyperlink ref="H44" r:id="rId25" xr:uid="{00000000-0004-0000-0800-000018000000}"/>
+    <hyperlink ref="H45" r:id="rId26" xr:uid="{00000000-0004-0000-0800-000019000000}"/>
+    <hyperlink ref="H48" r:id="rId27" xr:uid="{00000000-0004-0000-0800-00001A000000}"/>
+    <hyperlink ref="H52" r:id="rId28" xr:uid="{00000000-0004-0000-0800-00001B000000}"/>
+    <hyperlink ref="H56" r:id="rId29" xr:uid="{00000000-0004-0000-0800-00001C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>